--- a/topmeperp_v1/UploadFile/ProjectItem_Template_v1.xlsx
+++ b/topmeperp_v1/UploadFile/ProjectItem_Template_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS.NET\topmeperp_v1\topmeperp_v1\UploadFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS.NET\topmeperp_v1\topmeperp_v1\topmeperp_v1\UploadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"> 名             稱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>圖算數量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約內</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6231,10 +6235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7830,7 +7834,7 @@
     <col min="16303" max="16384" width="9" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
@@ -7847,7 +7851,7 @@
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -7868,7 +7872,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -7887,7 +7891,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -7930,6 +7934,9 @@
       <c r="N4" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O4" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
